--- a/unesiRezultate.xlsx
+++ b/unesiRezultate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>BrojIndeksa</t>
   </si>
@@ -35,10 +35,46 @@
     <t>BrojPoena</t>
   </si>
   <si>
-    <t>Aktivnost</t>
-  </si>
-  <si>
-    <t>kolokvijum</t>
+    <t>133/07</t>
+  </si>
+  <si>
+    <t>122/04</t>
+  </si>
+  <si>
+    <t>144/07</t>
+  </si>
+  <si>
+    <t>155/09</t>
+  </si>
+  <si>
+    <t>117/08</t>
+  </si>
+  <si>
+    <t>15/08</t>
+  </si>
+  <si>
+    <t>22/08</t>
+  </si>
+  <si>
+    <t>23/08</t>
+  </si>
+  <si>
+    <t>24/08</t>
+  </si>
+  <si>
+    <t>25/08</t>
+  </si>
+  <si>
+    <t>26/08</t>
+  </si>
+  <si>
+    <t>27/08</t>
+  </si>
+  <si>
+    <t>28/08</t>
+  </si>
+  <si>
+    <t>212/08</t>
   </si>
 </sst>
 </file>
@@ -381,45 +417,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>95</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
+      </c>
+      <c r="B5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
